--- a/TestData/taskdata_download/data/Site ID 99_Dynamic Data_TEST.xlsx
+++ b/TestData/taskdata_download/data/Site ID 99_Dynamic Data_TEST.xlsx
@@ -2,14 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gstarsoft\Huawei Site Co-Design CAD\site co-design Data\RU\MTS MOC Demo\Site List\77_099\0710000002 y00340407\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="5610"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dynamic Data" sheetId="1" r:id="rId1"/>
+    <sheet name="说明" sheetId="4" r:id="rId2"/>
+    <sheet name="系统信息" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,26 +25,889 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="230">
+  <si>
+    <t>方位角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业，设备类型，设备名，标识设备类；线缆类型，线缆名，标识线缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标明本线缆/设备，与CAD图库的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色自定义字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线缆标注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线缆标注2</t>
+  </si>
+  <si>
+    <t>线缆标注3</t>
+  </si>
+  <si>
+    <t>线缆标注4</t>
+  </si>
+  <si>
+    <t>RRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭了吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务接收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务接收人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel文件名，定义站点ID，任务号等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编码，在“系统信息保存”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，sheet “动态参数表”，告诉系统，所有动态参数在此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，从excel 的A1开始，空两行，开始识别，如果如下3里面的任何1个，则针对不同表格进行解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，“动态设备表，动态线缆表，动态自定义表”定义3类动态表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，动态设备表，动态线缆表，动态自定义表可以有多个，以A01右边的A02进行辨别，并且挂到老杨树中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，3个动态表，解析格式不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6，自定义动态表，是Key value形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7，可以随便增加前提sheet页，作为复制表，CAD只解析“动态数据表”这个sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Device</t>
+  </si>
+  <si>
+    <t>Dynamic Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A End Equipment Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A End Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z End Equipment Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z End Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic User-Defined table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx/Tx_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx/Tx_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx/Tx_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx/Tx_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPRI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPRI2</t>
+  </si>
+  <si>
+    <t>CPRI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot2—0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot2—3</t>
+  </si>
+  <si>
+    <t>Wireless Antenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless Antenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aсектор  C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Сектор A  0°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Сектор A  150°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Сектор A  270°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRU2</t>
+  </si>
+  <si>
+    <t>RRU3</t>
+  </si>
+  <si>
+    <t>RRU5</t>
+  </si>
+  <si>
+    <t>RRU6</t>
+  </si>
+  <si>
+    <t>RRU7</t>
+  </si>
+  <si>
+    <t>RRU8</t>
+  </si>
+  <si>
+    <t>RRU9</t>
+  </si>
+  <si>
+    <t>L2600</t>
+  </si>
+  <si>
+    <t>L1800/U2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBU5900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBU name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UEIUb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPEUe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCPDU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDU1</t>
+  </si>
+  <si>
+    <t>DCPDU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx/Tx_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx/Tx_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx/Tx_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPRI3</t>
+  </si>
+  <si>
+    <t>CPRI4</t>
+  </si>
+  <si>
+    <t>CPRI5</t>
+  </si>
+  <si>
+    <t>CPRI6</t>
+  </si>
+  <si>
+    <t>Slot3-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPRI7</t>
+  </si>
+  <si>
+    <t>CPRI8</t>
+  </si>
+  <si>
+    <t>CPRI9</t>
+  </si>
+  <si>
+    <t>CPRI optical fiber/DLC/UPC-DLC/UPC (9 шт. сущ.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumper1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumper2</t>
+  </si>
+  <si>
+    <t>Jumper3</t>
+  </si>
+  <si>
+    <t>Jumper4</t>
+  </si>
+  <si>
+    <t>Jumper5</t>
+  </si>
+  <si>
+    <t>Jumper6</t>
+  </si>
+  <si>
+    <t>Jumper7</t>
+  </si>
+  <si>
+    <t>Jumper8</t>
+  </si>
+  <si>
+    <t>Jumper9</t>
+  </si>
+  <si>
+    <t>Jumper10</t>
+  </si>
+  <si>
+    <t>Jumper11</t>
+  </si>
+  <si>
+    <t>Jumper12</t>
+  </si>
+  <si>
+    <t>Jumper13</t>
+  </si>
+  <si>
+    <t>Jumper14</t>
+  </si>
+  <si>
+    <t>Jumper15</t>
+  </si>
+  <si>
+    <t>Jumper16</t>
+  </si>
+  <si>
+    <t>Jumper17</t>
+  </si>
+  <si>
+    <t>Jumper18</t>
+  </si>
+  <si>
+    <t>Jumper19</t>
+  </si>
+  <si>
+    <t>Jumper20</t>
+  </si>
+  <si>
+    <t>Jumper21</t>
+  </si>
+  <si>
+    <t>Jumper22</t>
+  </si>
+  <si>
+    <t>Jumper23</t>
+  </si>
+  <si>
+    <t>Jumper24</t>
+  </si>
+  <si>
+    <t>Jumper25</t>
+  </si>
+  <si>
+    <t>Jumper26</t>
+  </si>
+  <si>
+    <t>Jumper27</t>
+  </si>
+  <si>
+    <t>Jumper28</t>
+  </si>
+  <si>
+    <t>Jumper29</t>
+  </si>
+  <si>
+    <t>Jumper30</t>
+  </si>
+  <si>
+    <t>DC Cable 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC Cable 2</t>
+  </si>
+  <si>
+    <t>DC Cable 3</t>
+  </si>
+  <si>
+    <t>DC Cable 4</t>
+  </si>
+  <si>
+    <t>DC Cable 5</t>
+  </si>
+  <si>
+    <t>DC Cable 6</t>
+  </si>
+  <si>
+    <t>DC Cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC Cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1800/L1800/U2100</t>
+  </si>
+  <si>
+    <t>G900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFL 492325 (2x10мм2^)
+ (3шт. сущ.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFL 492324 (2x6мм2^)
+ (3шт. сущ.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>КГВЭВнг (2x6мм2^)
+ (3шт. сущ.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC Cable 7</t>
+  </si>
+  <si>
+    <t>DC Cable 8</t>
+  </si>
+  <si>
+    <t>DC Cable 9</t>
+  </si>
+  <si>
+    <t>Aсектор  B</t>
+  </si>
+  <si>
+    <t>Aсектор  A</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>48v</t>
+  </si>
+  <si>
+    <t>RRU4</t>
+  </si>
+  <si>
+    <t>CPRI</t>
+  </si>
+  <si>
+    <t>AOC4518R8v06</t>
+  </si>
+  <si>
+    <t>RRU5909(900)</t>
+  </si>
+  <si>
+    <t>RRU5502(1800&amp;2100)</t>
+  </si>
+  <si>
+    <t>RRU5301(2600)</t>
+  </si>
+  <si>
+    <t>RRU5258</t>
+  </si>
+  <si>
+    <t>Aсектор  C</t>
+  </si>
+  <si>
+    <t>G901</t>
+  </si>
+  <si>
+    <t>L1800/U2101</t>
+  </si>
+  <si>
+    <t>L2601</t>
+  </si>
+  <si>
+    <t>G902</t>
+  </si>
+  <si>
+    <t>L1800/U2102</t>
+  </si>
+  <si>
+    <t>L2602</t>
+  </si>
+  <si>
+    <t>2600T</t>
+  </si>
+  <si>
+    <t>RRU10</t>
+  </si>
+  <si>
+    <t>RRU11</t>
+  </si>
+  <si>
+    <t>RRU12</t>
+  </si>
+  <si>
+    <t>BBU5900</t>
+  </si>
+  <si>
+    <t>BBU1</t>
+  </si>
+  <si>
+    <t>UBBpg3 L0</t>
+  </si>
+  <si>
+    <t>UBBpg3 UO</t>
+  </si>
+  <si>
+    <t>UBBpg3 LTM</t>
+  </si>
+  <si>
+    <t>UMPTg3 GUL</t>
+  </si>
+  <si>
+    <t>DCDU-12</t>
+  </si>
+  <si>
+    <t>c+</t>
+  </si>
+  <si>
+    <t>c-</t>
+  </si>
+  <si>
+    <t>f+</t>
+  </si>
+  <si>
+    <t>f-</t>
+  </si>
+  <si>
+    <t>b+</t>
+  </si>
+  <si>
+    <t>b-</t>
+  </si>
+  <si>
+    <t>d+</t>
+  </si>
+  <si>
+    <t>d-</t>
+  </si>
+  <si>
+    <t>a+</t>
+  </si>
+  <si>
+    <t>a-</t>
+  </si>
+  <si>
+    <t>e+</t>
+  </si>
+  <si>
+    <t>e-</t>
+  </si>
+  <si>
+    <t>Jumper31</t>
+  </si>
+  <si>
+    <t>Jumper32</t>
+  </si>
+  <si>
+    <t>Jumper33</t>
+  </si>
+  <si>
+    <t>Jumper34</t>
+  </si>
+  <si>
+    <t>Jumper35</t>
+  </si>
+  <si>
+    <t>Jumper36</t>
+  </si>
+  <si>
+    <t>CAD Data</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+  </si>
+  <si>
+    <t>ANT5</t>
+  </si>
+  <si>
+    <t>ANT9</t>
+  </si>
+  <si>
+    <t>ANT13</t>
+  </si>
+  <si>
+    <t>扇区</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +915,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +1044,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>34868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>40035</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>154221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715124" y="34868"/>
+          <a:ext cx="9784111" cy="9206203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,9 +1133,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,9 +1168,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -331,12 +1350,2757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="53" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" customWidth="1"/>
+    <col min="19" max="19" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5">
+      <c r="A5" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5">
+      <c r="A6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5">
+      <c r="A7" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1"/>
+    <row r="11" spans="1:12" ht="17.25" customHeight="1"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16.5">
+      <c r="A30" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="17.25" customHeight="1"/>
+    <row r="34" spans="1:18">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2</v>
+      </c>
+      <c r="H35" s="11">
+        <v>3</v>
+      </c>
+      <c r="I35" s="11">
+        <v>4</v>
+      </c>
+      <c r="J35" s="11">
+        <v>5</v>
+      </c>
+      <c r="K35" s="11">
+        <v>6</v>
+      </c>
+      <c r="L35" s="11">
+        <v>7</v>
+      </c>
+      <c r="M35" s="11">
+        <v>8</v>
+      </c>
+      <c r="N35" s="11">
+        <v>9</v>
+      </c>
+      <c r="O35" s="11">
+        <v>10</v>
+      </c>
+      <c r="P35" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="1:18" ht="17.25" customHeight="1"/>
+    <row r="40" spans="1:18">
+      <c r="A40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f>C42</f>
+        <v>Jumper1</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" ref="I43:I77" si="0">C43</f>
+        <v>Jumper2</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper3</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper4</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper5</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper6</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper7</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper8</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper9</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper10</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper11</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper12</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper13</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper14</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper15</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper16</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper17</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper18</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper19</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper20</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper21</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper22</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper23</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper24</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper25</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper26</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper27</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper28</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper29</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper30</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper31</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I73" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper32</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper33</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper34</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper35</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I77" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jumper36</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" ht="30">
+      <c r="A97" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30">
+      <c r="A98" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="30">
+      <c r="A99" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H99" s="6">
+        <v>2</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="30">
+      <c r="A100" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H100" s="6">
+        <v>3</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="30">
+      <c r="A101" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101" s="6">
+        <v>4</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="30">
+      <c r="A102" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H102" s="6">
+        <v>5</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="30">
+      <c r="A103" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H103" s="6">
+        <v>6</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="30">
+      <c r="A104" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H104" s="6">
+        <v>7</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30">
+      <c r="A105" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H105" s="6">
+        <v>8</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>